--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56294-2022</t>
+          <t>A 26736-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44887</v>
+        <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,252 +941,252 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Fläcklungört
+Månviol</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51368-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45950.44706018519</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Större vattensalamander
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56294-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra
 Strävlosta</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 26736-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45090</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fläcklungört
-Månviol</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 51368-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45950.44706018519</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 30452-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46043</v>
+        <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1208,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1226,52 +1226,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 30452-2025 artfynd.xlsx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 30452-2025 karta.png", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 30452-2025 FSC-klagomål.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 30452-2025 FSC-klagomål mail.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 30452-2025 tillsynsbegäran.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 30452-2025 tillsynsbegäran mail.docx", "A 30452-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 31678-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1283,26 +1283,21 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1313,55 +1308,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Hedblomster</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44538</v>
+        <v>45471</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,16 +1369,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1392,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1401,52 +1396,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45253</v>
+        <v>45351</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,79 +1458,79 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45471</v>
+        <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1544,22 +1543,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>16.6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1571,56 +1570,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45351</v>
+        <v>46043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1633,7 +1628,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1671,41 +1666,41 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 43335-2023</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45183</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,20 +1714,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1747,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1757,45 +1752,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30452-2025</t>
+          <t>A 43335-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45827</v>
+        <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1807,8 +1802,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>8.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1842,45 +1842,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 30452-2025 artfynd.xlsx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 30452-2025 karta.png", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 30452-2025 FSC-klagomål.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 30452-2025 FSC-klagomål mail.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 30452-2025 tillsynsbegäran.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 30452-2025 tillsynsbegäran mail.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 31678-2025</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45834</v>
+        <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,25 +1893,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1927,45 +1927,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Hedblomster</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45530</v>
+        <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1978,13 +1978,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>16.6</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2002,41 +2002,41 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 13055-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 44498-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44477</v>
+        <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13055-2022</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44643</v>
+        <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44498-2021</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44435</v>
+        <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44783</v>
+        <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45713</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44390</v>
+        <v>44477</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44538</v>
+        <v>45446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44449</v>
+        <v>45799</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45433</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45433</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45903</v>
+        <v>45713</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45265</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,8 +3839,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>9.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3882,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45189</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3898,11 +3903,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3939,14 +3944,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45260</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3959,7 +3964,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3996,14 +4001,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45909</v>
+        <v>45029</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4016,7 +4021,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4053,14 +4058,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4073,7 +4078,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4110,14 +4115,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45671</v>
+        <v>45104</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4130,7 +4135,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4167,14 +4172,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44886</v>
+        <v>45189</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4186,8 +4191,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4224,14 +4234,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45930</v>
+        <v>45236</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4243,8 +4253,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4281,14 +4296,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45999</v>
+        <v>45903</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4301,7 +4316,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4338,14 +4353,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4358,7 +4373,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4395,14 +4410,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45671</v>
+        <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4415,7 +4430,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4452,14 +4467,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45671</v>
+        <v>45909</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4472,7 +4487,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4509,14 +4524,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>45755</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4529,7 +4544,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4566,14 +4581,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4586,7 +4601,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4623,14 +4638,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45104</v>
+        <v>45671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4643,7 +4658,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4680,14 +4695,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>44390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4715,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4737,14 +4752,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45692</v>
+        <v>45827</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4756,13 +4771,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4799,14 +4809,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45827</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4819,7 +4829,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4856,14 +4866,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>45827</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,7 +4886,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4913,14 +4923,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45372</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4933,7 +4943,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4970,14 +4980,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45152</v>
+        <v>45471</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4990,7 +5000,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5027,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46049</v>
+        <v>45930</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5047,7 +5057,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5084,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5103,13 +5113,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>45671</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5165,13 +5170,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45895</v>
+        <v>45433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46008</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5341,13 +5341,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5384,14 +5379,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46008</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5403,13 +5398,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5446,14 +5436,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45433</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5466,7 +5456,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5503,14 +5493,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5513,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5560,14 +5550,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45014</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5580,7 +5570,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5617,14 +5607,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45713</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5637,7 +5627,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5674,14 +5664,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45204</v>
+        <v>45671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5694,7 +5684,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5731,14 +5721,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45104</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5741,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5788,14 +5778,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45114</v>
+        <v>45855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5808,7 +5798,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5845,14 +5835,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44664</v>
+        <v>45848</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5865,7 +5855,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5902,14 +5892,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5959,14 +5949,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45140</v>
+        <v>45259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6016,14 +6006,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45189</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6035,13 +6025,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6078,14 +6063,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44623</v>
+        <v>45895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6098,7 +6083,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6135,14 +6120,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45433</v>
+        <v>44914</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,8 +6139,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6192,14 +6182,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45446</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6211,8 +6201,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6249,14 +6244,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45260</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6266,11 +6261,6 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -6311,14 +6301,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45259</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6331,7 +6321,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6368,14 +6358,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6387,13 +6377,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6430,14 +6415,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45191</v>
+        <v>45713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6450,7 +6435,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6487,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45217</v>
+        <v>45713</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6507,7 +6492,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6544,14 +6529,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45236</v>
+        <v>45385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6565,11 +6550,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6606,14 +6591,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45471</v>
+        <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6626,7 +6611,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6663,14 +6648,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45163</v>
+        <v>45140</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6683,7 +6668,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6720,14 +6705,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45385</v>
+        <v>44713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,13 +6724,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6782,14 +6762,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44914</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6803,11 +6783,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6844,14 +6824,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45203</v>
+        <v>44600</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6864,7 +6844,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6901,14 +6881,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>45044</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6921,7 +6901,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6958,14 +6938,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44575</v>
+        <v>45372</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6978,7 +6958,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7015,14 +6995,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45282</v>
+        <v>44623</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7035,7 +7015,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7079,7 +7059,7 @@
         <v>44706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7129,14 +7109,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45029</v>
+        <v>45999</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7149,7 +7129,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7186,14 +7166,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45104</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7243,14 +7223,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44600</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7263,7 +7243,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7300,14 +7280,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7320,7 +7300,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7357,14 +7337,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7377,7 +7357,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7414,14 +7394,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45044</v>
+        <v>45203</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7434,7 +7414,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>9.4</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7471,14 +7451,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45163</v>
+        <v>45189</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,8 +7470,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>9.300000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7528,14 +7513,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44348</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7548,7 +7533,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7585,14 +7570,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44713</v>
+        <v>45433</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7590,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7642,14 +7627,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45189</v>
+        <v>45204</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,13 +7646,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7704,14 +7684,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45433</v>
+        <v>46049</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7724,7 +7704,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7761,14 +7741,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44977</v>
+        <v>44783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7781,7 +7761,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7818,14 +7798,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7837,8 +7817,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7875,14 +7860,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>45692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7894,8 +7879,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7932,14 +7922,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7951,8 +7941,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7989,14 +7984,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44948</v>
+        <v>45191</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8009,7 +8004,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8046,14 +8041,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45446</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8061,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8103,14 +8098,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8118,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8160,14 +8155,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45090</v>
+        <v>46008</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8185,7 +8180,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8222,14 +8217,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45611</v>
+        <v>45152</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8242,7 +8237,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8279,14 +8274,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>46008</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8298,8 +8293,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8336,14 +8336,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45282</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8393,14 +8393,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45713</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8412,8 +8412,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8450,14 +8455,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8470,7 +8475,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8507,14 +8512,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>44664</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8527,7 +8532,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8564,14 +8569,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45799</v>
+        <v>45446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8584,7 +8589,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8621,14 +8626,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8646,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8678,14 +8683,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45713</v>
+        <v>45163</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8703,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8735,14 +8740,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45189</v>
+        <v>45114</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8754,13 +8759,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>6.4</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8797,14 +8797,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45090</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,8 +8816,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8854,14 +8859,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45014</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8874,7 +8879,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8911,14 +8916,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8931,7 +8936,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8968,14 +8973,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45827</v>
+        <v>45217</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8988,7 +8993,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9025,14 +9030,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45827</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9045,7 +9050,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9082,14 +9087,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45827</v>
+        <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9102,7 +9107,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9139,14 +9144,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45755</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,7 +9164,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9196,14 +9201,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>45433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9216,7 +9221,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9253,14 +9258,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9273,7 +9278,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9310,14 +9315,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45611</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9330,7 +9335,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9367,14 +9372,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45671</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9387,7 +9392,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9424,14 +9429,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45848</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9444,7 +9449,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9478,17 +9483,17 @@
       </c>
       <c r="R147" s="2" t="inlineStr"/>
     </row>
-    <row r="148">
+    <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45855</v>
+        <v>45713</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9501,7 +9506,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9534,6 +9539,63 @@
         <v>0</v>
       </c>
       <c r="R148" s="2" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>A 45353-2024</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>45576.47909722223</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45950.44706018519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45471</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45351</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>46043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>46049.62539351852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44943.43438657407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44477</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45575.36310185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45799</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45799.45917824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45799.45798611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45713</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45645.38118055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>45187.47180555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45189</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45825.83328703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45029</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45576.47644675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45104</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45189</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45236</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45903</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45905.66563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45909</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45755</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45825.84996527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45827</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>45827</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45827</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44572.58090277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45471</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45930</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45671</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45845.5909837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45940.58430555555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45845.5739699074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45845.50957175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45946.52924768518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45946.53009259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45104</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45848</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45868.47796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>44914</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44316.32141203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45260</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45666.5195949074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45701.65484953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45713</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>45385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>45140</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>46029.6750925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44600</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45044</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45372</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44623</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45999</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>46001.55604166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>45407.60150462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45407.56798611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>46043.35827546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45203</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45189</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>46048.4096875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45433</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>45204</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>46049</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>46029.67237268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>45692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>46049.66547453704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>45191</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>45407.56114583334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>46008</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>45152</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>46008</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>45282</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>46059.49254629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45603.57090277778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44664</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45163</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45114</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45090</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45014</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45666.64070601852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>45217</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>45210.86210648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>45611.26017361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>45433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>45007.40105324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45611</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>45784.6365162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>45784.64052083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>45713</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45576.47909722223</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45950.44706018519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45471</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45351</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>46043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>46049.62539351852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44943.43438657407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>44477</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45575.36310185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45799</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45799.45917824074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45799.45798611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45713</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>45645.38118055555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>45187.47180555556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45189</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45825.83328703704</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45029</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45576.47644675926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45104</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>45189</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45236</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45903</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45905.66563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44575</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45909</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45755</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45825.84996527778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45671</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45827</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>45827</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45827</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44572.58090277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45471</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45930</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45671</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45845.5909837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45940.58430555555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45845.5739699074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45845.50957175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45946.52924768518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45946.53009259259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45104</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45855</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45848</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45868.47796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45895</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>44914</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44316.32141203704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45260</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45666.5195949074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45701.65484953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45713</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>45385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>45140</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44713</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>46029.6750925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44600</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>45044</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>45372</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>44623</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>44706</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>45999</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         <v>46001.55604166666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>45407.60150462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45407.56798611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>46043.35827546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45203</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>45189</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>46048.4096875</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45433</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>45204</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>46049</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>44783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>46029.67237268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>45692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         <v>46049.66547453704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>45191</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>45407.56114583334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45163</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>46008</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>45152</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>46008</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>45282</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>46059.49254629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45603.57090277778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44664</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>44348</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45163</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45114</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45090</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45014</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45666.64070601852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>45217</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>45210.86210648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>45611.26017361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>45433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>45007.40105324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>45611</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>45784.6365162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>45784.64052083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>45713</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>45576.47909722223</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26736-2023</t>
+          <t>A 51368-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45090</v>
+        <v>45950.44706018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -965,214 +965,214 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Större vattensalamander
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 56294-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26736-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Fläcklungört
 Månviol</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 51368-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45950.44706018519</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 56294-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,14 +1349,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45471</v>
+        <v>45530</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>16.6</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1396,56 +1396,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45351</v>
+        <v>44538</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1454,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1492,45 +1488,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45530</v>
+        <v>46043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1543,7 +1539,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>16.6</v>
+        <v>5.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1555,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1577,45 +1573,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46043</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1627,20 +1623,25 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1652,55 +1653,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>45253</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1712,16 +1713,11 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1752,45 +1748,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 43335-2023</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45183</v>
+        <v>45471</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,16 +1798,11 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1842,45 +1833,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44538</v>
+        <v>45351</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1888,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1905,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1927,45 +1922,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 43335-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45253</v>
+        <v>45183</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,32 +1972,37 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2012,31 +2012,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44538</v>
+        <v>44783</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44886</v>
+        <v>45713</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44948</v>
+        <v>45433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45265</v>
+        <v>45433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>44449</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44477</v>
+        <v>45260</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45446</v>
+        <v>45265</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45799</v>
+        <v>44886</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45372</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45713</v>
+        <v>45152</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45827</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45827</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,13 +3839,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3882,14 +3877,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45189</v>
+        <v>45827</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,13 +3896,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3944,14 +3934,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>45755</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3964,7 +3954,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4001,14 +3991,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45029</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4021,7 +4011,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4058,14 +4048,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4078,7 +4068,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4115,14 +4105,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45104</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4135,7 +4125,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4172,14 +4162,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45189</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4191,13 +4181,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4234,14 +4219,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45236</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4253,13 +4238,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4296,14 +4276,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45903</v>
+        <v>45433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4316,7 +4296,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4353,14 +4333,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>45671</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4373,7 +4353,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4410,14 +4390,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44575</v>
+        <v>45903</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4430,7 +4410,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4467,14 +4447,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45909</v>
+        <v>45848</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4487,7 +4467,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4524,14 +4504,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45755</v>
+        <v>45855</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4544,7 +4524,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4581,14 +4561,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4601,7 +4581,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4638,14 +4618,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45671</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4658,7 +4638,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4695,14 +4675,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44390</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4715,7 +4695,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4752,14 +4732,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45827</v>
+        <v>45014</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4772,7 +4752,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4809,14 +4789,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45827</v>
+        <v>45909</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4829,7 +4809,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4866,14 +4846,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45827</v>
+        <v>45713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4886,7 +4866,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4923,14 +4903,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45204</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4943,7 +4923,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4980,14 +4960,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45471</v>
+        <v>45671</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5000,7 +4980,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5044,7 +5024,7 @@
         <v>45930</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5094,14 +5074,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5114,7 +5094,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5131,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45671</v>
+        <v>44477</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5151,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5188,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45433</v>
+        <v>45671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5208,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5245,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45433</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5285,7 +5265,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5302,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>44390</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5322,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5379,14 +5359,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>44538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5379,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5436,14 +5416,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5436,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5493,14 +5473,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5493,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5550,14 +5530,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5550,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5607,14 +5587,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45895</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5607,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5664,14 +5644,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45671</v>
+        <v>45104</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5664,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5721,14 +5701,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45104</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5721,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5778,14 +5758,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45855</v>
+        <v>45114</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5778,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5835,14 +5815,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45848</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5854,8 +5834,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5892,14 +5877,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45433</v>
+        <v>44664</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5897,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5949,14 +5934,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45259</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5954,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6006,14 +5991,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45140</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6011,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6063,14 +6048,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45895</v>
+        <v>45999</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6068,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6120,14 +6105,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44914</v>
+        <v>45189</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6141,11 +6126,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6182,14 +6167,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6201,13 +6186,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6244,14 +6224,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45260</v>
+        <v>44623</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6264,7 +6244,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6301,14 +6281,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45433</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6321,7 +6301,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6358,14 +6338,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>45446</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6378,7 +6358,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6415,14 +6395,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45713</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6435,7 +6415,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6472,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45713</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6491,8 +6471,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6529,14 +6514,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45385</v>
+        <v>45259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,13 +6533,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6591,14 +6571,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44977</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6611,7 +6591,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6648,14 +6628,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45140</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6667,8 +6647,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6705,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44713</v>
+        <v>45692</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6724,8 +6709,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6762,14 +6752,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45191</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6781,13 +6771,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6824,14 +6809,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44600</v>
+        <v>45217</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6844,7 +6829,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6881,14 +6866,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45044</v>
+        <v>45236</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6900,8 +6885,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6938,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45372</v>
+        <v>46049</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6958,7 +6948,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6995,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44623</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7014,8 +7004,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7052,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44706</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7071,8 +7066,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7109,14 +7109,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45999</v>
+        <v>45471</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7166,14 +7166,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>46008</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7185,8 +7185,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7223,14 +7228,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>45163</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7243,7 +7248,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7280,14 +7285,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7299,8 +7304,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7337,14 +7347,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>46008</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7356,8 +7366,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7394,14 +7409,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45203</v>
+        <v>45385</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7413,8 +7428,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7451,14 +7471,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45189</v>
+        <v>44914</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7472,11 +7492,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7513,14 +7533,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45203</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7533,7 +7553,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7570,14 +7590,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45433</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,7 +7610,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7627,14 +7647,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45204</v>
+        <v>44575</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7647,7 +7667,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7684,14 +7704,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46049</v>
+        <v>45282</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7704,7 +7724,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7741,14 +7761,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44783</v>
+        <v>44706</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7761,7 +7781,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7798,14 +7818,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45029</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7817,13 +7837,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7860,14 +7875,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45692</v>
+        <v>45104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7879,13 +7894,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7922,14 +7932,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>44600</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7941,13 +7951,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7984,14 +7989,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45191</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +8009,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.300000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8041,14 +8046,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8061,7 +8066,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8098,14 +8103,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45163</v>
+        <v>45044</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8118,7 +8123,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8155,14 +8160,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46008</v>
+        <v>45163</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,13 +8179,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8217,14 +8217,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45152</v>
+        <v>44348</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8274,14 +8274,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46008</v>
+        <v>44713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8293,13 +8293,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8336,14 +8331,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45282</v>
+        <v>45189</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8355,8 +8350,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8393,14 +8393,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>45433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8412,13 +8412,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8455,14 +8450,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>44977</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8470,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8512,14 +8507,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44664</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8527,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8569,14 +8564,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45446</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8584,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8626,14 +8621,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44348</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8641,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8683,14 +8678,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45163</v>
+        <v>44948</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8698,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8740,14 +8735,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45114</v>
+        <v>45446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8760,7 +8755,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8797,14 +8792,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45090</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,13 +8811,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8859,14 +8849,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45014</v>
+        <v>45090</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8878,8 +8868,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8916,14 +8911,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>45611</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8936,7 +8931,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8973,14 +8968,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45217</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8993,7 +8988,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9030,14 +9025,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9050,7 +9045,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9087,14 +9082,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44449</v>
+        <v>45713</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9107,7 +9102,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9144,14 +9139,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9164,7 +9159,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9201,14 +9196,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45433</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9221,7 +9216,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9258,14 +9253,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>45799</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9273,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9315,14 +9310,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45611</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9330,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9372,14 +9367,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>45713</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9387,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9429,14 +9424,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45189</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,8 +9443,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9486,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45713</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9543,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51368-2025</t>
+          <t>A 56294-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45950.44706018519</v>
+        <v>44887</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -975,204 +975,204 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Myskmadra
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 26736-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Fläcklungört
+Månviol</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 51368-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45950.44706018519</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 56294-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26736-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45090</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcklungört
-Månviol</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1349,14 +1349,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45530</v>
+        <v>45471</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16.6</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1396,52 +1396,56 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44538</v>
+        <v>45351</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1454,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1466,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1488,45 +1492,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46043</v>
+        <v>45530</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1539,7 +1543,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.6</v>
+        <v>16.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1573,45 +1577,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>46043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1623,26 +1627,21 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1653,55 +1652,55 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45253</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1713,11 +1712,16 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1748,45 +1752,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 43335-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45471</v>
+        <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,11 +1802,16 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,49 +1842,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45351</v>
+        <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1888,7 +1893,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1922,45 +1927,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43335-2023</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45183</v>
+        <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,22 +1977,17 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2012,31 +2012,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44783</v>
+        <v>44449</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45713</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45433</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45433</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44449</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45260</v>
+        <v>44538</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45265</v>
+        <v>44886</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45903</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44886</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3592,14 +3592,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45372</v>
+        <v>45265</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3649,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>44948</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45152</v>
+        <v>45909</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45827</v>
+        <v>45611</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45827</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45827</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45755</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45446</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>44477</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4105,14 +4105,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>45671</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4162,14 +4162,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>45713</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4219,14 +4219,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4276,14 +4276,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45433</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4295,8 +4295,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4333,14 +4338,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45671</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4353,7 +4358,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4390,14 +4395,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45903</v>
+        <v>45799</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4410,7 +4415,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4447,14 +4452,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45848</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4467,7 +4472,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4504,14 +4509,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45855</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4524,7 +4529,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4561,14 +4566,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>45713</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4581,7 +4586,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4618,14 +4623,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4643,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4675,14 +4680,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45189</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4694,8 +4699,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4732,14 +4742,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45014</v>
+        <v>45029</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4752,7 +4762,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4789,14 +4799,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45909</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4809,7 +4819,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4846,14 +4856,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45713</v>
+        <v>45104</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45204</v>
+        <v>45189</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4922,8 +4932,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4960,14 +4975,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45671</v>
+        <v>45236</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4979,8 +4994,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5017,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45930</v>
+        <v>44575</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5037,7 +5057,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5074,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45671</v>
+        <v>44390</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5094,7 +5114,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5131,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44477</v>
+        <v>45755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5151,7 +5171,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5188,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45671</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5208,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5245,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>45827</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5265,7 +5285,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5302,14 +5322,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44390</v>
+        <v>45827</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5322,7 +5342,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5359,14 +5379,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44538</v>
+        <v>45827</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5379,7 +5399,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5416,14 +5436,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45930</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5436,7 +5456,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5473,14 +5493,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>45671</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5493,7 +5513,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5530,14 +5550,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5550,7 +5570,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5587,14 +5607,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45895</v>
+        <v>45671</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5607,7 +5627,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.2</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5644,14 +5664,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45104</v>
+        <v>45471</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5664,7 +5684,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5701,14 +5721,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5721,7 +5741,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5758,14 +5778,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45114</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5778,7 +5798,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5815,14 +5835,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5834,13 +5854,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5877,14 +5892,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44664</v>
+        <v>45433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5897,7 +5912,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5934,14 +5949,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45433</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5954,7 +5969,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5991,14 +6006,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45140</v>
+        <v>45671</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6011,7 +6026,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6048,14 +6063,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45999</v>
+        <v>45855</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6068,7 +6083,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6105,14 +6120,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45189</v>
+        <v>45848</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6124,13 +6139,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6167,14 +6177,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6187,7 +6197,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6224,14 +6234,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44623</v>
+        <v>45104</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6244,7 +6254,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6281,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45433</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6301,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6338,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45446</v>
+        <v>45433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6358,7 +6368,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6395,14 +6405,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>45259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6415,7 +6425,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6452,14 +6462,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6471,13 +6481,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6514,14 +6519,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45259</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6534,7 +6539,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6571,14 +6576,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>44914</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6590,8 +6595,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6635,7 +6645,7 @@
         <v>44316.32141203704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6690,14 +6700,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45692</v>
+        <v>45260</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,13 +6719,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6752,14 +6757,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45191</v>
+        <v>45895</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6772,7 +6777,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6809,14 +6814,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45217</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6829,7 +6834,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6866,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45236</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6885,13 +6890,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6928,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46049</v>
+        <v>45713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45713</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7004,13 +7004,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,14 +7042,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>45385</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7072,7 +7067,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7109,14 +7104,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45471</v>
+        <v>44977</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7129,7 +7124,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7166,14 +7161,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46008</v>
+        <v>45140</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7185,13 +7180,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7228,14 +7218,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45163</v>
+        <v>44713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7248,7 +7238,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7285,14 +7275,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>44600</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7304,13 +7294,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7347,14 +7332,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46008</v>
+        <v>45044</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7366,13 +7351,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7409,14 +7389,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45385</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7430,11 +7410,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7471,14 +7451,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44914</v>
+        <v>45372</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,13 +7470,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7533,14 +7508,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45203</v>
+        <v>44623</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7553,7 +7528,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7590,14 +7565,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>44706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7610,7 +7585,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7647,14 +7622,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44575</v>
+        <v>45999</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7667,7 +7642,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>6.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7704,14 +7679,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45282</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7724,7 +7699,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7761,14 +7736,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44706</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7781,7 +7756,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7818,14 +7793,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45029</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7838,7 +7813,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7875,14 +7850,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45104</v>
+        <v>45203</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7932,14 +7907,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44600</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7989,14 +7964,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45189</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8008,8 +7983,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8046,14 +8026,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8066,7 +8046,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8103,14 +8083,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45044</v>
+        <v>45433</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8123,7 +8103,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8160,14 +8140,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45163</v>
+        <v>45204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8180,7 +8160,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8217,14 +8197,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44348</v>
+        <v>44783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8237,7 +8217,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8274,14 +8254,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44713</v>
+        <v>45191</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8294,7 +8274,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8331,14 +8311,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45189</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8350,13 +8330,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8393,14 +8368,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45433</v>
+        <v>46049</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8413,7 +8388,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8450,14 +8425,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44977</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8469,8 +8444,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8507,14 +8487,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45692</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8526,8 +8506,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8564,14 +8549,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>45163</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8584,7 +8569,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8621,14 +8606,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8640,8 +8625,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8678,14 +8668,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44948</v>
+        <v>45152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8688,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8735,14 +8725,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45446</v>
+        <v>45282</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8745,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8792,14 +8782,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8812,7 +8802,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8849,14 +8839,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45090</v>
+        <v>44664</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8868,13 +8858,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8911,14 +8896,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45611</v>
+        <v>45446</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8931,7 +8916,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8968,14 +8953,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>44348</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8988,7 +8973,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9025,14 +9010,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45163</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9045,7 +9030,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9082,14 +9067,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45713</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,8 +9086,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9139,14 +9129,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45114</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,7 +9149,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9196,14 +9186,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>46008</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9215,8 +9205,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9253,14 +9248,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45799</v>
+        <v>46008</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9272,8 +9267,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9310,14 +9310,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45090</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9329,8 +9329,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9367,14 +9372,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45713</v>
+        <v>45014</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9424,14 +9429,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45189</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9443,13 +9448,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9486,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45217</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9543,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>44887</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45090</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>45950.44706018519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,14 +1179,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 30452-2025</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45827</v>
+        <v>44538</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1208,16 +1208,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1226,52 +1226,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 30452-2025 artfynd.xlsx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 30452-2025 karta.png", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 30452-2025 FSC-klagomål.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 30452-2025 FSC-klagomål mail.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 30452-2025 tillsynsbegäran.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 30452-2025 tillsynsbegäran mail.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 31678-2025</t>
+          <t>A 30452-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45834</v>
+        <v>45827</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1311,52 +1311,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Hedblomster</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 30452-2025 artfynd.xlsx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 30452-2025 karta.png", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 30452-2025 FSC-klagomål.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 30452-2025 FSC-klagomål mail.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 30452-2025 tillsynsbegäran.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 30452-2025 tillsynsbegäran mail.docx", "A 30452-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 31678-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45471</v>
+        <v>45834</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1396,56 +1396,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Hedblomster</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45351</v>
+        <v>45530</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1454,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>16.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1492,45 +1488,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45530</v>
+        <v>45253</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1543,13 +1539,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>16.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1558,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1567,55 +1563,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46043</v>
+        <v>45471</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,19 +1624,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1655,52 +1651,56 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>45351</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1712,26 +1712,21 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1742,41 +1737,41 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
@@ -1790,7 +1785,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,14 +1868,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44538</v>
+        <v>46043</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1888,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1905,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1927,45 +1922,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45253</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,11 +1972,16 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -2012,31 +2012,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2509,14 +2509,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 26262-2021</t>
+          <t>A 68007-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44347</v>
+        <v>44525</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31675-2021</t>
+          <t>A 26262-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44369</v>
+        <v>44347</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 68007-2021</t>
+          <t>A 74418-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44525</v>
+        <v>44560</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 74418-2021</t>
+          <t>A 60263-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44560</v>
+        <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 60263-2021</t>
+          <t>A 21424-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44495</v>
+        <v>44706</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21424-2022</t>
+          <t>A 31675-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44706</v>
+        <v>44369</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13055-2022</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44643</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44498-2021</t>
+          <t>A 13055-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44435</v>
+        <v>44643</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 44498-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>44783</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45433</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>45713</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>44886</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44538</v>
+        <v>44449</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44886</v>
+        <v>45433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45903</v>
+        <v>45433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>45104</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>45265</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3649,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44948</v>
+        <v>45260</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45909</v>
+        <v>45372</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45611</v>
+        <v>45152</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45114</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45446</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44477</v>
+        <v>44914</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4067,8 +4067,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4105,14 +4110,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45671</v>
+        <v>45827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4125,7 +4130,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4162,14 +4167,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45713</v>
+        <v>45827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4182,7 +4187,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4219,14 +4224,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45827</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4239,7 +4244,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4276,14 +4281,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45755</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4295,13 +4300,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>45433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799</v>
+        <v>45203</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>44664</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4509,14 +4509,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45713</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45189</v>
+        <v>44575</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,13 +4699,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4742,14 +4737,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45029</v>
+        <v>45282</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4757,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4799,14 +4794,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>44706</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4819,7 +4814,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4856,14 +4851,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45104</v>
+        <v>45029</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,7 +4871,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45189</v>
+        <v>45104</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4932,13 +4927,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4975,14 +4965,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45236</v>
+        <v>44600</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,13 +4984,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5037,14 +5022,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44575</v>
+        <v>45140</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5057,7 +5042,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5094,14 +5079,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44390</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5114,7 +5099,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5136,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45755</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5156,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5193,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>45014</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5213,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5250,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45827</v>
+        <v>45189</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5284,8 +5269,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5312,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45827</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5332,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5379,14 +5369,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45827</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5389,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5436,14 +5426,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45930</v>
+        <v>45044</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5446,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5493,14 +5483,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45671</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5513,7 +5503,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5550,14 +5540,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45713</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5560,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5607,14 +5597,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45671</v>
+        <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5627,7 +5617,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5664,14 +5654,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45471</v>
+        <v>45433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5721,14 +5711,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>45446</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5741,7 +5731,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5778,14 +5768,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45204</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5788,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5835,14 +5825,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>45671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5845,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5892,14 +5882,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45433</v>
+        <v>45848</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5902,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5949,14 +5939,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45433</v>
+        <v>45855</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5959,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6006,14 +5996,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45671</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6025,8 +6015,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6063,14 +6058,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45855</v>
+        <v>45259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6078,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6120,14 +6115,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45848</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6139,8 +6134,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45104</v>
+        <v>45191</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45217</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45433</v>
+        <v>45236</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6367,8 +6367,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6405,14 +6410,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45259</v>
+        <v>45163</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6430,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6462,14 +6467,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>44477</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6482,7 +6487,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6519,14 +6524,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45471</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6539,7 +6544,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6576,14 +6581,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44914</v>
+        <v>45163</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6595,13 +6600,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6638,14 +6638,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>44390</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6657,13 +6657,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6700,14 +6695,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45260</v>
+        <v>44538</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6720,7 +6715,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6757,14 +6752,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45895</v>
+        <v>44348</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6777,7 +6772,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6814,14 +6809,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45385</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6833,8 +6828,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6871,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6928,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45713</v>
+        <v>44713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45713</v>
+        <v>45189</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7004,8 +7004,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7042,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45385</v>
+        <v>45433</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7061,13 +7066,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>44977</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7161,14 +7161,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45140</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7218,14 +7218,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44713</v>
+        <v>45903</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7275,14 +7275,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44600</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7332,14 +7332,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45044</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>9.4</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7389,14 +7389,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7408,13 +7408,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7451,14 +7446,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45372</v>
+        <v>44948</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7471,7 +7466,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7508,14 +7503,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44623</v>
+        <v>45446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7528,7 +7523,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7565,14 +7560,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44706</v>
+        <v>45909</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7585,7 +7580,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7622,14 +7617,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45999</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7642,7 +7637,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7679,14 +7674,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>45671</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7699,7 +7694,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7736,14 +7731,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45090</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7755,8 +7750,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7793,14 +7793,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>45930</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7850,14 +7850,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45203</v>
+        <v>45611</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7907,14 +7907,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7964,14 +7964,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45189</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7983,13 +7983,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8026,14 +8021,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45671</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8046,7 +8041,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8083,14 +8078,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45433</v>
+        <v>45671</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8103,7 +8098,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8140,14 +8135,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45204</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8160,7 +8155,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8197,14 +8192,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44783</v>
+        <v>45713</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8217,7 +8212,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8254,14 +8249,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45191</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8274,7 +8269,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8311,14 +8306,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8331,7 +8326,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8368,14 +8363,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46049</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8388,7 +8383,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8425,14 +8420,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45895</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8444,13 +8439,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8487,14 +8477,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45692</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8506,13 +8496,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8549,14 +8534,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45163</v>
+        <v>45799</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8569,7 +8554,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>9.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8606,14 +8591,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8625,13 +8610,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8668,14 +8648,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45152</v>
+        <v>45713</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8688,7 +8668,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8725,14 +8705,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45282</v>
+        <v>45189</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,8 +8724,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8782,14 +8767,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8802,7 +8787,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8839,14 +8824,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44664</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8859,7 +8844,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8896,14 +8881,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45446</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8915,8 +8900,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8953,14 +8943,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44348</v>
+        <v>45999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8973,7 +8963,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9010,14 +9000,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45163</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9030,7 +9020,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9067,14 +9057,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9086,13 +9076,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9129,14 +9114,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45114</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9149,7 +9134,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9186,14 +9171,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46008</v>
+        <v>45692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9207,11 +9192,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9248,14 +9233,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46008</v>
+        <v>46049</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9267,13 +9252,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9310,14 +9290,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45090</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9315,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9372,14 +9352,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45014</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9391,8 +9371,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9429,14 +9414,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9448,8 +9433,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9476,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45217</v>
+        <v>46008</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9505,8 +9495,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9538,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>46008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9562,8 +9557,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56294-2022</t>
+          <t>A 26736-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44887</v>
+        <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,252 +941,252 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Fläcklungört
+Månviol</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51368-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45950.44706018519</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Större vattensalamander
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56294-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra
 Strävlosta</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 26736-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45090</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Fläcklungört
-Månviol</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 51368-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45950.44706018519</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 30452-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44538</v>
+        <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1226,52 +1226,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 30452-2025 artfynd.xlsx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 30452-2025 karta.png", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 30452-2025 FSC-klagomål.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 30452-2025 FSC-klagomål mail.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 30452-2025 tillsynsbegäran.docx", "A 30452-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 30452-2025 tillsynsbegäran mail.docx", "A 30452-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 30452-2025</t>
+          <t>A 31678-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1284,19 +1284,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1311,52 +1311,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Hedblomster</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 30452-2025 artfynd.xlsx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 30452-2025 karta.png", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 30452-2025 FSC-klagomål.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 30452-2025 FSC-klagomål mail.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 30452-2025 tillsynsbegäran.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 30452-2025 tillsynsbegäran mail.docx", "A 30452-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31678-2025</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45834</v>
+        <v>45530</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>16.6</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1403,45 +1403,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Hedblomster</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45530</v>
+        <v>45471</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1454,22 +1454,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>16.6</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1481,52 +1481,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45253</v>
+        <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1539,79 +1543,79 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45471</v>
+        <v>46043</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1624,19 +1628,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1651,56 +1655,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45351</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1712,20 +1712,25 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1737,41 +1742,41 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
@@ -1785,7 +1790,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1868,14 +1873,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46043</v>
+        <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1888,7 +1893,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1922,45 +1927,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,16 +1977,11 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -2012,31 +2012,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2509,14 +2509,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 68007-2021</t>
+          <t>A 26262-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44525</v>
+        <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 26262-2021</t>
+          <t>A 31675-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44347</v>
+        <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2623,14 +2623,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 74418-2021</t>
+          <t>A 68007-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44560</v>
+        <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2680,14 +2680,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60263-2021</t>
+          <t>A 74418-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44495</v>
+        <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2737,14 +2737,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 21424-2022</t>
+          <t>A 60263-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44706</v>
+        <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2794,14 +2794,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 31675-2021</t>
+          <t>A 21424-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44369</v>
+        <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,14 +2965,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 13055-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3022,14 +3022,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13055-2022</t>
+          <t>A 44498-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44643</v>
+        <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44498-2021</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44435</v>
+        <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44783</v>
+        <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45713</v>
+        <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44886</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44449</v>
+        <v>45446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45433</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,8 +3440,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3483,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45433</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3503,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3540,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45104</v>
+        <v>44477</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3560,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3592,14 +3597,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45265</v>
+        <v>45799</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3617,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3649,14 +3654,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45260</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3674,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3711,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45372</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3731,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3768,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45152</v>
+        <v>45713</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3788,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3825,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3840,7 +3845,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3882,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>46008</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3896,8 +3901,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3934,14 +3944,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45114</v>
+        <v>45189</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3953,8 +3963,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3991,14 +4006,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>46008</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4010,8 +4025,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4048,14 +4068,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44914</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4069,11 +4089,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4110,14 +4130,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45827</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4130,7 +4150,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4167,14 +4187,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45827</v>
+        <v>45029</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4187,7 +4207,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4224,14 +4244,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45827</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4244,7 +4264,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4281,14 +4301,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45755</v>
+        <v>45104</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4301,7 +4321,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4338,14 +4358,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45433</v>
+        <v>45755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4358,7 +4378,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4395,14 +4415,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45203</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4415,7 +4435,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4452,14 +4472,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44664</v>
+        <v>45189</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4471,8 +4491,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4509,14 +4534,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>45827</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4529,7 +4554,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4566,14 +4591,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45827</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4586,7 +4611,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4623,14 +4648,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45827</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4643,7 +4668,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4680,14 +4705,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44575</v>
+        <v>45236</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4699,8 +4724,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4737,14 +4767,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45282</v>
+        <v>44575</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4757,7 +4787,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4794,14 +4824,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44706</v>
+        <v>44390</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4814,7 +4844,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4851,14 +4881,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45029</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4871,7 +4901,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4908,14 +4938,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45104</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4928,7 +4958,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4965,14 +4995,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44600</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +5015,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5022,14 +5052,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45140</v>
+        <v>45671</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5042,7 +5072,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5079,14 +5109,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45903</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5099,7 +5129,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5136,14 +5166,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>45855</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5186,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5193,14 +5223,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45014</v>
+        <v>45848</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5213,7 +5243,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5250,14 +5280,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45189</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,13 +5299,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5312,14 +5337,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5332,7 +5357,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5369,14 +5394,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>45471</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5389,7 +5414,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5426,14 +5451,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45044</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5446,7 +5471,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.4</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5483,14 +5508,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45909</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5503,7 +5528,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5540,14 +5565,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45713</v>
+        <v>45433</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5560,7 +5585,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5597,14 +5622,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44623</v>
+        <v>45433</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5617,7 +5642,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5654,14 +5679,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45433</v>
+        <v>45671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5674,7 +5699,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5711,14 +5736,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45446</v>
+        <v>45104</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5731,7 +5756,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5768,14 +5793,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45204</v>
+        <v>45433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5788,7 +5813,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5825,14 +5850,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45671</v>
+        <v>45259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5845,7 +5870,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5882,14 +5907,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45848</v>
+        <v>44914</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5901,8 +5926,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5939,14 +5969,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45855</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5958,8 +5988,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5996,14 +6031,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45260</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6013,11 +6048,6 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -6058,14 +6088,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45259</v>
+        <v>45930</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6078,7 +6108,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6115,14 +6145,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>45671</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6134,13 +6164,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6177,14 +6202,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45671</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6222,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6234,14 +6259,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45191</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6279,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>9.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6316,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45217</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6336,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6373,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45236</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6367,13 +6392,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6410,14 +6430,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45163</v>
+        <v>45713</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6430,7 +6450,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6467,14 +6487,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44477</v>
+        <v>45713</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6487,7 +6507,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6524,14 +6544,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45471</v>
+        <v>45385</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6543,8 +6563,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6581,14 +6606,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45163</v>
+        <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6601,7 +6626,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6638,14 +6663,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44390</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6658,7 +6683,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6695,14 +6720,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44538</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6715,7 +6740,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6752,14 +6777,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44348</v>
+        <v>45140</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6772,7 +6797,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6809,14 +6834,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45385</v>
+        <v>44713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6828,13 +6853,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6871,14 +6891,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>44600</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6891,7 +6911,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6928,14 +6948,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44713</v>
+        <v>45044</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6948,7 +6968,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6985,14 +7005,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45189</v>
+        <v>45895</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7004,13 +7024,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,14 +7062,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45433</v>
+        <v>45372</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7067,7 +7082,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7104,14 +7119,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44977</v>
+        <v>44623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7124,7 +7139,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7161,14 +7176,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>44706</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7181,7 +7196,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7218,14 +7233,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45903</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7238,7 +7253,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7275,14 +7290,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7295,7 +7310,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7332,14 +7347,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>45203</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7352,7 +7367,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7389,14 +7404,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>45189</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7408,8 +7423,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>9.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7446,14 +7466,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44948</v>
+        <v>45433</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7466,7 +7486,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>6.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7503,14 +7523,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45446</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7522,8 +7542,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7560,14 +7585,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45909</v>
+        <v>45204</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7580,7 +7605,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7617,14 +7642,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>44783</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7637,7 +7662,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7674,14 +7699,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45671</v>
+        <v>45191</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7694,7 +7719,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7731,14 +7756,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45090</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7750,13 +7775,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7793,14 +7813,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930</v>
+        <v>45163</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7813,7 +7833,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7850,14 +7870,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45611</v>
+        <v>45152</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7870,7 +7890,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7907,14 +7927,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>45282</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7927,7 +7947,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7964,14 +7984,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7984,7 +8004,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8021,14 +8041,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45671</v>
+        <v>44664</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8061,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8078,14 +8098,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45671</v>
+        <v>45446</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8098,7 +8118,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8135,14 +8155,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>44348</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8155,7 +8175,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8192,14 +8212,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45713</v>
+        <v>45999</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8212,7 +8232,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8249,14 +8269,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45163</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8269,7 +8289,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8306,14 +8326,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8326,7 +8346,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8363,14 +8383,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8383,7 +8403,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8420,14 +8440,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45895</v>
+        <v>45114</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8440,7 +8460,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8477,14 +8497,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8497,7 +8517,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8534,14 +8554,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45799</v>
+        <v>46049</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8554,7 +8574,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8591,14 +8611,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8610,8 +8630,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8648,14 +8673,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45713</v>
+        <v>45692</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8667,8 +8692,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8705,14 +8735,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45189</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8726,11 +8756,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8767,14 +8797,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45090</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8786,8 +8816,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8824,14 +8859,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45014</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8844,7 +8879,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8881,14 +8916,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8900,13 +8935,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8943,14 +8973,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45999</v>
+        <v>45217</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8963,7 +8993,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9000,14 +9030,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9020,7 +9050,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9057,14 +9087,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9077,7 +9107,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9114,14 +9144,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9134,7 +9164,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9171,14 +9201,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45692</v>
+        <v>45433</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9190,13 +9220,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9233,14 +9258,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46049</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9253,7 +9278,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9290,14 +9315,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45611</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9309,13 +9334,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9352,14 +9372,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9371,13 +9391,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9414,14 +9429,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,13 +9448,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9476,14 +9486,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46008</v>
+        <v>45713</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9495,13 +9505,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9538,14 +9543,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46008</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9557,13 +9562,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45950.44706018519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,14 +1264,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 31678-2025</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45834</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1283,20 +1283,25 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1308,55 +1313,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Hedblomster</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 31678-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45530</v>
+        <v>45834</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1369,10 +1374,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16.6</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1381,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1403,45 +1408,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Hedblomster</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45471</v>
+        <v>45530</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1454,22 +1459,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>16.6</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1481,56 +1486,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45351</v>
+        <v>45471</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1543,19 +1544,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,52 +1571,56 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46043</v>
+        <v>45351</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,7 +1633,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,41 +1671,41 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>46043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1712,26 +1717,21 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1742,41 +1742,41 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45713</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45446</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,13 +3440,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3483,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3503,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3540,14 +3535,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44477</v>
+        <v>45446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3560,7 +3555,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3597,14 +3592,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45799</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3617,7 +3612,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3654,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45799</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3674,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3711,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3731,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3768,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45713</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3788,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3825,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45713</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3845,7 +3840,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3882,14 +3877,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46008</v>
+        <v>44477</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3901,13 +3896,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3944,14 +3934,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45189</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3963,13 +3953,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4006,14 +3991,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46008</v>
+        <v>45189</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4027,11 +4012,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4068,14 +4053,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4087,13 +4072,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4130,14 +4110,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,8 +4129,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4187,14 +4172,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45029</v>
+        <v>45903</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4207,7 +4192,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4244,14 +4229,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4264,7 +4249,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4301,14 +4286,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45104</v>
+        <v>45909</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4321,7 +4306,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4365,7 +4350,7 @@
         <v>45755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4422,7 +4407,7 @@
         <v>45825.84996527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4472,14 +4457,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45189</v>
+        <v>45029</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,13 +4476,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4534,14 +4514,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45827</v>
+        <v>45671</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4554,7 +4534,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4591,14 +4571,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>45827</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4611,7 +4591,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4648,14 +4628,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>45827</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4668,7 +4648,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4705,14 +4685,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45236</v>
+        <v>45827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,13 +4704,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4767,14 +4742,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44575</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4787,7 +4762,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4824,14 +4799,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44390</v>
+        <v>45104</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4844,7 +4819,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4881,14 +4856,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>46049</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4901,7 +4876,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4938,14 +4913,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45189</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4957,8 +4932,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4995,14 +4975,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5014,8 +4994,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5052,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45671</v>
+        <v>45692</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5071,8 +5056,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5109,14 +5099,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45903</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,8 +5118,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5166,14 +5161,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45855</v>
+        <v>45236</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,8 +5180,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5223,14 +5223,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45848</v>
+        <v>44575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5280,14 +5280,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5337,14 +5337,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>44390</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5394,14 +5394,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45471</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5451,14 +5451,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5508,14 +5508,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45909</v>
+        <v>45930</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5565,14 +5565,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45433</v>
+        <v>45671</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5622,14 +5622,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45433</v>
+        <v>45671</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5679,14 +5679,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
         <v>45671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5736,14 +5736,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45104</v>
+        <v>45855</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5793,14 +5793,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45433</v>
+        <v>45848</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5850,14 +5850,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45259</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5907,14 +5907,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44914</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5926,13 +5926,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5969,14 +5964,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5988,13 +5983,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6031,14 +6021,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45260</v>
+        <v>45471</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6041,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6088,14 +6078,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45930</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6108,7 +6098,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6145,14 +6135,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45671</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6155,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6202,14 +6192,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45671</v>
+        <v>45895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6222,7 +6212,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>7.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6259,14 +6249,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6279,7 +6269,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6316,14 +6306,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>45433</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6336,7 +6326,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6373,14 +6363,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,8 +6382,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6430,14 +6425,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45713</v>
+        <v>45104</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6450,7 +6445,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6487,14 +6482,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45713</v>
+        <v>45433</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6544,14 +6539,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45385</v>
+        <v>45259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6563,13 +6558,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6606,14 +6596,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44977</v>
+        <v>44914</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,8 +6615,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6663,14 +6658,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,8 +6677,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6720,14 +6720,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,8 +6739,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6777,14 +6782,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45140</v>
+        <v>45260</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6797,7 +6802,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6834,14 +6839,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44713</v>
+        <v>46008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,8 +6858,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6891,14 +6901,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44600</v>
+        <v>46008</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,8 +6920,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6948,14 +6963,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45044</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6968,7 +6983,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>9.4</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7005,14 +7020,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45895</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7025,7 +7040,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7062,14 +7077,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45372</v>
+        <v>45713</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7082,7 +7097,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7119,14 +7134,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44623</v>
+        <v>45713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7139,7 +7154,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7176,14 +7191,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44706</v>
+        <v>45385</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,8 +7210,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7233,14 +7253,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>44977</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7253,7 +7273,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7290,14 +7310,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45999</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7310,7 +7330,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7347,14 +7367,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45203</v>
+        <v>45140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7367,7 +7387,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7404,14 +7424,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45189</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7423,13 +7443,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7466,14 +7481,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45433</v>
+        <v>44713</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7486,7 +7501,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7523,14 +7538,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7542,13 +7557,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7585,14 +7595,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45204</v>
+        <v>44600</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7605,7 +7615,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7642,14 +7652,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44783</v>
+        <v>45044</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7662,7 +7672,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>9.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7699,14 +7709,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45191</v>
+        <v>45372</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7719,7 +7729,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>9.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7756,14 +7766,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>44623</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7776,7 +7786,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7813,14 +7823,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45163</v>
+        <v>44706</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7833,7 +7843,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>9.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7870,14 +7880,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45152</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7890,7 +7900,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7927,14 +7937,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45282</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7947,7 +7957,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7984,14 +7994,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45203</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +8014,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8041,14 +8051,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44664</v>
+        <v>45189</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,8 +8070,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8098,14 +8113,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45446</v>
+        <v>45433</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8118,7 +8133,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8155,14 +8170,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44348</v>
+        <v>45204</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8175,7 +8190,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8212,14 +8227,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45999</v>
+        <v>44783</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8232,7 +8247,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8269,14 +8284,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45163</v>
+        <v>45191</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8289,7 +8304,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8326,14 +8341,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8346,7 +8361,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8383,14 +8398,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>45163</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8403,7 +8418,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8440,14 +8455,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45114</v>
+        <v>45152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8460,7 +8475,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8497,14 +8512,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45282</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8517,7 +8532,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8554,14 +8569,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46049</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8574,7 +8589,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8611,14 +8626,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>44664</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,13 +8645,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8673,14 +8683,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45692</v>
+        <v>45446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8692,13 +8702,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8735,14 +8740,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>44348</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8754,13 +8759,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8797,14 +8797,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45090</v>
+        <v>45163</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8816,13 +8816,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8859,14 +8854,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45014</v>
+        <v>45114</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8879,7 +8874,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8916,14 +8911,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>45090</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8935,8 +8930,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8973,14 +8973,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45217</v>
+        <v>45014</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9030,14 +9030,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9087,14 +9087,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44449</v>
+        <v>45217</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9144,14 +9144,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9201,14 +9201,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45433</v>
+        <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9258,14 +9258,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9315,14 +9315,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45611</v>
+        <v>45433</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9372,14 +9372,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9429,14 +9429,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45611</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9486,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45713</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9543,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45950.44706018519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,14 +1264,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 31678-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1283,26 +1283,21 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1313,55 +1308,55 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Hedblomster</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31678-2025</t>
+          <t>A 35258-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45834</v>
+        <v>45530</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,22 +1369,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>16.6</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1408,45 +1403,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Hedblomster</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 31678-2025 artfynd.xlsx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 31678-2025 karta.png", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 31678-2025 FSC-klagomål.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 31678-2025 FSC-klagomål mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 31678-2025 tillsynsbegäran.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 31678-2025 tillsynsbegäran mail.docx", "A 31678-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 35258-2024</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45530</v>
+        <v>45471</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1459,22 +1454,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>16.6</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1486,52 +1481,56 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 35258-2024 artfynd.xlsx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 35258-2024 karta.png", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 35258-2024 FSC-klagomål.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 35258-2024 FSC-klagomål mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 35258-2024 tillsynsbegäran.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 35258-2024 tillsynsbegäran mail.docx", "A 35258-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45471</v>
+        <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1544,19 +1543,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1571,56 +1570,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45351</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1632,20 +1627,25 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1657,41 +1657,41 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>46043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44538</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44886</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44948</v>
+        <v>44538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45265</v>
+        <v>44886</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>45713</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>44948</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45446</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>45575.36310185185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3649,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45799</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45799</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45713</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44477</v>
+        <v>45713</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45446</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45189</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4010,13 +4010,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4053,14 +4048,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45189</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4072,8 +4067,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4110,14 +4110,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>44477</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4129,13 +4129,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4179,7 +4174,7 @@
         <v>45903</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4236,7 +4231,7 @@
         <v>45905.66563657407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4293,7 +4288,7 @@
         <v>45909</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4343,14 +4338,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45755</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4362,8 +4357,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4400,14 +4400,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>45671</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4457,14 +4457,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45029</v>
+        <v>45755</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4514,14 +4514,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45671</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4571,14 +4571,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45827</v>
+        <v>45029</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4628,14 +4628,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>45827</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4685,14 +4685,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>45827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4742,14 +4742,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45827</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4799,14 +4799,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45104</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4856,14 +4856,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46049</v>
+        <v>45104</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>45189</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4975,14 +4975,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45930</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4994,13 +4994,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45692</v>
+        <v>45236</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5058,11 +5053,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5099,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5118,13 +5113,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5161,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45236</v>
+        <v>45671</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5180,13 +5170,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5230,7 +5215,7 @@
         <v>44575</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5280,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>44390</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5300,7 +5285,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5337,14 +5322,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44390</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5357,7 +5342,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5401,7 +5386,7 @@
         <v>45845.5739699074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5451,14 +5436,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5471,7 +5456,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5508,14 +5493,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45930</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5528,7 +5513,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5565,14 +5550,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45671</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5585,7 +5570,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5629,7 +5614,7 @@
         <v>45671</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5679,14 +5664,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45671</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5699,7 +5684,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5743,7 +5728,7 @@
         <v>45855</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5800,7 +5785,7 @@
         <v>45848</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5850,14 +5835,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5870,7 +5855,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5907,14 +5892,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>45471</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5964,14 +5949,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45895</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5984,7 +5969,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6021,14 +6006,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45471</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6041,7 +6026,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6078,14 +6063,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>45433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6098,7 +6083,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6135,14 +6120,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45433</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6155,7 +6140,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6192,14 +6177,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45895</v>
+        <v>45104</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6212,7 +6197,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6249,14 +6234,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>45433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6269,7 +6254,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6306,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45433</v>
+        <v>45259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6326,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6363,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>44914</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6384,11 +6369,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6425,14 +6410,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45104</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6444,8 +6429,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6482,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45433</v>
+        <v>45999</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6502,7 +6492,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6539,14 +6529,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6559,7 +6549,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6596,14 +6586,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44914</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6615,13 +6605,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6658,14 +6643,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,13 +6662,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6720,14 +6700,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,13 +6719,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6782,14 +6757,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45260</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6802,7 +6777,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6839,14 +6814,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46008</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,13 +6833,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6901,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46008</v>
+        <v>45713</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,13 +6890,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6963,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45713</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6983,7 +6948,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7020,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>45385</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7039,8 +7004,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7077,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45713</v>
+        <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7097,7 +7067,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7134,14 +7104,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45713</v>
+        <v>46049</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7154,7 +7124,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7191,14 +7161,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45385</v>
+        <v>45692</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7216,7 +7186,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7253,14 +7223,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44977</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7272,8 +7242,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7310,14 +7285,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45999</v>
+        <v>45140</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7330,7 +7305,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7367,14 +7342,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45140</v>
+        <v>44713</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7387,7 +7362,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7424,14 +7399,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>44600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7444,7 +7419,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7481,14 +7456,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44713</v>
+        <v>45044</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7501,7 +7476,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>9.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7538,14 +7513,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7557,8 +7532,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7595,14 +7575,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44600</v>
+        <v>45372</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7615,7 +7595,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7652,14 +7632,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45044</v>
+        <v>44623</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7672,7 +7652,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7709,14 +7689,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45372</v>
+        <v>44706</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7729,7 +7709,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7766,14 +7746,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44623</v>
+        <v>46008</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,8 +7765,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7823,14 +7808,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44706</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7843,7 +7828,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7880,14 +7865,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7900,7 +7885,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7937,14 +7922,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>46008</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7956,8 +7941,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8001,7 +7991,7 @@
         <v>45203</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8051,14 +8041,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45189</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8076,7 +8066,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8113,14 +8103,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45433</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8132,8 +8122,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8170,14 +8165,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45204</v>
+        <v>45189</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8189,8 +8184,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8227,14 +8227,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44783</v>
+        <v>45433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8284,14 +8284,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45191</v>
+        <v>45204</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8341,14 +8341,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>44783</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8398,14 +8398,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45163</v>
+        <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8455,14 +8455,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45152</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8512,14 +8512,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45282</v>
+        <v>45163</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8569,14 +8569,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45152</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8626,14 +8626,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44664</v>
+        <v>45282</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8683,14 +8683,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45446</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8740,14 +8740,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44348</v>
+        <v>44664</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8797,14 +8797,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45163</v>
+        <v>45446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8854,14 +8854,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45114</v>
+        <v>44348</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8911,14 +8911,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45090</v>
+        <v>45163</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8930,13 +8930,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8973,14 +8968,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45014</v>
+        <v>45114</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8993,7 +8988,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9030,14 +9025,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>45090</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9049,8 +9044,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9087,14 +9087,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45217</v>
+        <v>45014</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9144,14 +9144,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9201,14 +9201,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44449</v>
+        <v>45217</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9258,14 +9258,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>0.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9315,14 +9315,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45433</v>
+        <v>44449</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9372,14 +9372,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9429,14 +9429,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45611</v>
+        <v>45433</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9486,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9543,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45611</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26736-2023</t>
+          <t>A 51368-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45090</v>
+        <v>45950.44706018519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -965,214 +965,214 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Större vattensalamander
+Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 56294-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26736-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Fläcklungört
 Månviol</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 51368-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45950.44706018519</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Mindre vattensalamander</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 56294-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45530</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,14 +1434,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45471</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1453,17 +1453,22 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1478,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1488,49 +1493,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45351</v>
+        <v>46043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1543,7 +1544,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,41 +1582,41 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>44538</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1627,85 +1628,80 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46043</v>
+        <v>45253</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1718,19 +1714,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1742,55 +1738,55 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 43335-2023</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45183</v>
+        <v>45471</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1802,16 +1798,11 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1842,45 +1833,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44538</v>
+        <v>45351</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1893,7 +1888,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1905,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1927,45 +1922,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 43335-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45253</v>
+        <v>45183</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1977,32 +1972,37 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2012,31 +2012,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>44783</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45713</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44538</v>
+        <v>45671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44886</v>
+        <v>45671</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45713</v>
+        <v>44449</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45265</v>
+        <v>45433</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44948</v>
+        <v>45611</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>45825.83328703704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3592,14 +3592,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3649,14 +3649,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3706,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45799</v>
+        <v>45265</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3763,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45260</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3820,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45713</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3877,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45713</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3934,14 +3934,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45446</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3991,14 +3991,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45903</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4048,14 +4048,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45189</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4067,13 +4067,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>6.4</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4110,14 +4105,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44477</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4130,7 +4125,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4167,14 +4162,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45903</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4187,7 +4182,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4231,7 +4226,7 @@
         <v>45905.66563657407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4281,14 +4276,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45909</v>
+        <v>44886</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4301,7 +4296,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4338,14 +4333,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4357,13 +4352,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4400,14 +4390,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45671</v>
+        <v>45895</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4420,7 +4410,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4457,14 +4447,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45755</v>
+        <v>45799</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4477,7 +4467,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4514,14 +4504,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4534,7 +4524,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4571,14 +4561,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45029</v>
+        <v>45909</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4591,7 +4581,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4628,14 +4618,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45827</v>
+        <v>45713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4648,7 +4638,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4685,14 +4675,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45827</v>
+        <v>45189</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4704,8 +4694,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4742,14 +4737,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45827</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4757,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4799,14 +4794,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4819,7 +4814,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4856,14 +4851,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45104</v>
+        <v>45671</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4876,7 +4871,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45189</v>
+        <v>45930</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4932,13 +4927,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4975,14 +4965,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45930</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4995,7 +4985,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5032,14 +5022,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45236</v>
+        <v>45827</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5051,13 +5041,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5094,14 +5079,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45671</v>
+        <v>45827</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5114,7 +5099,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5136,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45671</v>
+        <v>45372</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5156,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5193,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44575</v>
+        <v>45152</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5213,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5250,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44390</v>
+        <v>45827</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5285,7 +5270,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5307,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>45755</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5342,7 +5327,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5379,14 +5364,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5399,7 +5384,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5436,14 +5421,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5456,7 +5441,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5500,7 +5485,7 @@
         <v>45845.50957175926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5550,14 +5535,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5570,7 +5555,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5614,7 +5599,7 @@
         <v>45671</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5664,14 +5649,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45848</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5684,7 +5669,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5728,7 +5713,7 @@
         <v>45855</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5778,14 +5763,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45848</v>
+        <v>45433</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5798,7 +5783,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5835,14 +5820,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5840,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5892,14 +5877,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45471</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5912,7 +5897,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5949,14 +5934,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45895</v>
+        <v>45014</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5969,7 +5954,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6006,14 +5991,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6026,7 +6011,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6063,14 +6048,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45433</v>
+        <v>45204</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6083,7 +6068,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6120,14 +6105,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45433</v>
+        <v>45999</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6140,7 +6125,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6177,14 +6162,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45104</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6197,7 +6182,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6234,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45433</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6254,7 +6239,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6276,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45259</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6296,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6333,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44914</v>
+        <v>45692</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6373,7 +6358,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6410,14 +6395,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>44477</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6429,13 +6414,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6472,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45999</v>
+        <v>46049</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6492,7 +6472,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6529,14 +6509,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45260</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6548,8 +6528,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6586,14 +6571,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>44390</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6606,7 +6591,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6643,14 +6628,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>44538</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6663,7 +6648,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6700,14 +6685,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6720,7 +6705,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6757,14 +6742,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6776,8 +6761,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6814,14 +6804,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>45104</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6834,7 +6824,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6871,14 +6861,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45713</v>
+        <v>46008</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6890,8 +6880,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6928,14 +6923,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45713</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6947,8 +6942,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45385</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7006,11 +7006,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44977</v>
+        <v>46008</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7066,8 +7066,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7104,14 +7109,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46049</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7124,7 +7129,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7161,14 +7166,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45692</v>
+        <v>45114</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7180,13 +7185,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7223,14 +7223,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>44664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7242,13 +7242,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7285,14 +7280,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45140</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7305,7 +7300,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7342,14 +7337,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44713</v>
+        <v>45140</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7362,7 +7357,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7399,14 +7394,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44600</v>
+        <v>45189</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7418,8 +7413,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7456,14 +7456,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45044</v>
+        <v>44623</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7513,14 +7513,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>45433</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7532,13 +7532,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7575,14 +7570,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45372</v>
+        <v>45446</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7595,7 +7590,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7632,14 +7627,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44623</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7651,8 +7646,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7689,14 +7689,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44706</v>
+        <v>45259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7746,14 +7746,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46008</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7767,11 +7767,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7808,14 +7808,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>45191</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7865,14 +7865,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45217</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7922,14 +7922,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46008</v>
+        <v>45236</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7943,11 +7943,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7984,14 +7984,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45203</v>
+        <v>45471</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8041,14 +8041,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 39414-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,13 +8060,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8103,14 +8098,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45385</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8124,11 +8119,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8165,14 +8160,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45189</v>
+        <v>44914</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8186,11 +8181,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8227,14 +8222,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45433</v>
+        <v>45203</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8247,7 +8242,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8284,14 +8279,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45204</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8304,7 +8299,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8341,14 +8336,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44783</v>
+        <v>44575</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8361,7 +8356,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8398,14 +8393,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45191</v>
+        <v>45282</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8418,7 +8413,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>9.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8455,14 +8450,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>44706</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8475,7 +8470,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8512,14 +8507,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45163</v>
+        <v>45029</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8532,7 +8527,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>9.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8569,14 +8564,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45152</v>
+        <v>45104</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8589,7 +8584,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8626,14 +8621,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45282</v>
+        <v>44600</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8646,7 +8641,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8683,14 +8678,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8703,7 +8698,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8740,14 +8735,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44664</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8760,7 +8755,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8797,14 +8792,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45446</v>
+        <v>45044</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8817,7 +8812,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>9.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8854,14 +8849,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44348</v>
+        <v>45163</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8874,7 +8869,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8911,14 +8906,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 39414-2023</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45163</v>
+        <v>44348</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8931,7 +8926,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8968,14 +8963,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45114</v>
+        <v>44713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8988,7 +8983,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9025,14 +9020,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45090</v>
+        <v>45189</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9050,7 +9045,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9087,14 +9082,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45014</v>
+        <v>45433</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9107,7 +9102,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9144,14 +9139,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>44977</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9164,7 +9159,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9201,14 +9196,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45217</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9221,7 +9216,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9258,14 +9253,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9278,7 +9273,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9315,14 +9310,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44449</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9335,7 +9330,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9372,14 +9367,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>44948</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9392,7 +9387,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9429,14 +9424,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45433</v>
+        <v>45446</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9449,7 +9444,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9486,14 +9481,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9506,7 +9501,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9543,14 +9538,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45611</v>
+        <v>45090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9562,8 +9557,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 51368-2025</t>
+          <t>A 26736-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45950.44706018519</v>
+        <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,238 +941,238 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Fläcklungört
+Månviol</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 51368-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45950.44706018519</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander
 Mindre vattensalamander</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 51368-2025 artfynd.xlsx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 51368-2025 karta.png", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 51368-2025 FSC-klagomål.docx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 51368-2025 FSC-klagomål mail.docx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 51368-2025 tillsynsbegäran.docx", "A 51368-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 51368-2025 tillsynsbegäran mail.docx", "A 51368-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 56294-2022</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44887</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SJÖBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>4.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Myskmadra
 Strävlosta</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 56294-2022 artfynd.xlsx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 56294-2022 karta.png", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 56294-2022 FSC-klagomål.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 56294-2022 FSC-klagomål mail.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 56294-2022 tillsynsbegäran.docx", "A 56294-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 56294-2022 tillsynsbegäran mail.docx", "A 56294-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26736-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45090</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SJÖBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcklungört
-Månviol</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 26736-2023 artfynd.xlsx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 26736-2023 karta.png", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 26736-2023 FSC-klagomål.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 26736-2023 FSC-klagomål mail.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 26736-2023 tillsynsbegäran.docx", "A 26736-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 26736-2023 tillsynsbegäran mail.docx", "A 26736-2023")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45530</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,14 +1434,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 5166-2026</t>
+          <t>A 27230-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46049.62539351852</v>
+        <v>45471</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1453,23 +1453,18 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1483,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1493,45 +1488,49 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 3765-2026</t>
+          <t>A 8150-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46043</v>
+        <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1544,7 +1543,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,41 +1581,41 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 71055-2021</t>
+          <t>A 5166-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44538</v>
+        <v>46049.62539351852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1628,14 +1627,19 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1647,61 +1651,61 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Skogsalm</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 5166-2026 artfynd.xlsx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 5166-2026 karta.png", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 5166-2026 FSC-klagomål.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 5166-2026 FSC-klagomål mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 5166-2026 tillsynsbegäran.docx", "A 5166-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 5166-2026 tillsynsbegäran mail.docx", "A 5166-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 59610-2023</t>
+          <t>A 3765-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45253</v>
+        <v>46043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1714,79 +1718,79 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Ekoxe</t>
+          <t>Fläcklungört</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 3765-2026 artfynd.xlsx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 3765-2026 karta.png", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 3765-2026 FSC-klagomål.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 3765-2026 FSC-klagomål mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 3765-2026 tillsynsbegäran.docx", "A 3765-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 3765-2026 tillsynsbegäran mail.docx", "A 3765-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 27230-2024</t>
+          <t>A 43335-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45471</v>
+        <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1798,11 +1802,16 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,49 +1842,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 27230-2024 artfynd.xlsx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 27230-2024 karta.png", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 27230-2024 FSC-klagomål.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 27230-2024 FSC-klagomål mail.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 27230-2024 tillsynsbegäran.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 27230-2024 tillsynsbegäran mail.docx", "A 27230-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/fåglar/A 27230-2024 prioriterade fågelarter.docx", "A 27230-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 8150-2024</t>
+          <t>A 71055-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45351</v>
+        <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1888,7 +1893,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1922,45 +1927,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Fläcklungört</t>
+          <t>Skogsalm</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 8150-2024 artfynd.xlsx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 71055-2021 artfynd.xlsx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 8150-2024 karta.png", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 71055-2021 karta.png", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 8150-2024 FSC-klagomål.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 71055-2021 FSC-klagomål.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 8150-2024 FSC-klagomål mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 71055-2021 FSC-klagomål mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 8150-2024 tillsynsbegäran.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 71055-2021 tillsynsbegäran.docx", "A 71055-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 8150-2024 tillsynsbegäran mail.docx", "A 8150-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 71055-2021 tillsynsbegäran mail.docx", "A 71055-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 43335-2023</t>
+          <t>A 59610-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45183</v>
+        <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1972,22 +1977,17 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2012,31 +2012,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Ekoxe</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 43335-2023 artfynd.xlsx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/artfynd/A 59610-2023 artfynd.xlsx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 43335-2023 karta.png", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/kartor/A 59610-2023 karta.png", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 43335-2023 FSC-klagomål.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomål/A 59610-2023 FSC-klagomål.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 43335-2023 FSC-klagomål mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/klagomålsmail/A 59610-2023 FSC-klagomål mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 43335-2023 tillsynsbegäran.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsyn/A 59610-2023 tillsynsbegäran.docx", "A 59610-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 43335-2023 tillsynsbegäran mail.docx", "A 43335-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1265/tillsynsmail/A 59610-2023 tillsynsbegäran mail.docx", "A 59610-2023")</f>
         <v/>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3079,14 +3079,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 32732-2022</t>
+          <t>A 70933-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44783</v>
+        <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3136,14 +3136,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8858-2025</t>
+          <t>A 54959-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45713</v>
+        <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3193,14 +3193,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 1858-2025</t>
+          <t>A 3258-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45671</v>
+        <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3250,14 +3250,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1865-2025</t>
+          <t>A 61875-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45671</v>
+        <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3307,14 +3307,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48026-2021</t>
+          <t>A 2449-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44449</v>
+        <v>44943.43438657407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3364,14 +3364,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19883-2024</t>
+          <t>A 22330-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45433</v>
+        <v>45446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3421,14 +3421,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19888-2024</t>
+          <t>A 56137-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45433</v>
+        <v>44477</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3478,14 +3478,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 52959-2024</t>
+          <t>A 43745-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45611</v>
+        <v>45187.47180555556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3497,8 +3497,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3535,14 +3540,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29816-2025</t>
+          <t>A 16429-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45825.83328703704</v>
+        <v>45029</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3555,7 +3560,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3592,14 +3597,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21973-2025</t>
+          <t>A 45348-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45784.6365162037</v>
+        <v>45576.47644675926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3612,7 +3617,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3649,14 +3654,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21976-2025</t>
+          <t>A 28919-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45784.64052083333</v>
+        <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3669,7 +3674,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3706,14 +3711,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61875-2023</t>
+          <t>A 45981-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45265</v>
+        <v>45189</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3725,8 +3730,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3763,14 +3773,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60778-2023</t>
+          <t>A 29816-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45260</v>
+        <v>45825.83328703704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3783,7 +3793,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3820,14 +3830,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8861-2025</t>
+          <t>A 54711-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45713</v>
+        <v>45236</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3839,8 +3849,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3877,14 +3892,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1235-2022</t>
+          <t>A 16979-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44572.58090277778</v>
+        <v>45755</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3897,7 +3912,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3934,14 +3949,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45353-2024</t>
+          <t>A 29821-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45576.47909722223</v>
+        <v>45825.84996527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3954,7 +3969,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3991,14 +4006,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 42323-2025</t>
+          <t>A 2026-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45903</v>
+        <v>44575</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4011,7 +4026,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4048,14 +4063,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49897-2025</t>
+          <t>A 30343-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45940.58430555555</v>
+        <v>45827</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4068,7 +4083,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4105,14 +4120,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50816-2025</t>
+          <t>A 30451-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45946.53009259259</v>
+        <v>45827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4125,7 +4140,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4162,14 +4177,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50815-2025</t>
+          <t>A 30453-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45946.52924768518</v>
+        <v>45827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4182,7 +4197,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4219,14 +4234,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42599-2025</t>
+          <t>A 36363-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45905.66563657407</v>
+        <v>44390</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4239,7 +4254,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>9.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4276,14 +4291,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54959-2022</t>
+          <t>A 42323-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44886</v>
+        <v>45903</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4296,7 +4311,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4333,14 +4348,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44893-2024</t>
+          <t>A 42599-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45575.36310185185</v>
+        <v>45905.66563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4353,7 +4368,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4390,14 +4405,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40463-2025</t>
+          <t>A 43000-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4410,7 +4425,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4447,14 +4462,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24914-2025</t>
+          <t>A 34173-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45799</v>
+        <v>45845.5909837963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4467,7 +4482,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4504,14 +4519,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60947-2024</t>
+          <t>A 1846-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45645.38118055555</v>
+        <v>45671</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4524,7 +4539,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4561,14 +4576,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43000-2025</t>
+          <t>A 34157-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45909</v>
+        <v>45845.5739699074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4581,7 +4596,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4618,14 +4633,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8859-2025</t>
+          <t>A 34115-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45713</v>
+        <v>45845.50957175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4638,7 +4653,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4675,14 +4690,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 44580-2023</t>
+          <t>A 1235-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45189</v>
+        <v>44572.58090277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4694,13 +4709,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4737,14 +4747,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24833-2025</t>
+          <t>A 27237-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45799.45917824074</v>
+        <v>45471</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4757,7 +4767,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4794,14 +4804,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24830-2025</t>
+          <t>A 1879-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45799.45798611111</v>
+        <v>45671</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4814,7 +4824,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4851,14 +4861,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1846-2025</t>
+          <t>A 35454-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45671</v>
+        <v>45855</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4871,7 +4881,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4908,14 +4918,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47180-2025</t>
+          <t>A 34780-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45930</v>
+        <v>45848</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4928,7 +4938,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4965,14 +4975,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29821-2025</t>
+          <t>A 19883-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45825.84996527778</v>
+        <v>45433</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4985,7 +4995,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5022,14 +5032,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30451-2025</t>
+          <t>A 19888-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45827</v>
+        <v>45433</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5042,7 +5052,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5079,14 +5089,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30453-2025</t>
+          <t>A 36347-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45827</v>
+        <v>45868.47796296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5099,7 +5109,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5136,14 +5146,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11500-2024</t>
+          <t>A 47180-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45372</v>
+        <v>45930</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5193,14 +5203,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36414-2023</t>
+          <t>A 1865-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45152</v>
+        <v>45671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5213,7 +5223,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5250,14 +5260,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30343-2025</t>
+          <t>A 1858-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45827</v>
+        <v>45671</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5270,7 +5280,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5307,14 +5317,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16979-2025</t>
+          <t>A 28923-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45755</v>
+        <v>45104</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5327,7 +5337,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5364,14 +5374,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45348-2024</t>
+          <t>A 19884-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45576.47644675926</v>
+        <v>45433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5384,7 +5394,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5421,14 +5431,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 34173-2025</t>
+          <t>A 60371-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45845.5909837963</v>
+        <v>45259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5441,7 +5451,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5478,14 +5488,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34115-2025</t>
+          <t>A 49897-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45845.50957175926</v>
+        <v>45940.58430555555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5498,7 +5508,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5535,14 +5545,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 34157-2025</t>
+          <t>A 61031-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45845.5739699074</v>
+        <v>44914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5554,8 +5564,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5592,14 +5607,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1879-2025</t>
+          <t>A 20572-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45671</v>
+        <v>44316.32141203704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5611,8 +5626,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5649,14 +5669,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34780-2025</t>
+          <t>A 50815-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45848</v>
+        <v>45946.52924768518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5669,7 +5689,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5706,14 +5726,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35454-2025</t>
+          <t>A 50816-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45855</v>
+        <v>45946.53009259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5726,7 +5746,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5763,14 +5783,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19880-2024</t>
+          <t>A 60778-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45433</v>
+        <v>45260</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5783,7 +5803,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5820,14 +5840,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36347-2025</t>
+          <t>A 40463-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45868.47796296296</v>
+        <v>45895</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5840,7 +5860,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5877,14 +5897,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52958-2024</t>
+          <t>A 1031-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45611.26017361111</v>
+        <v>45666.5195949074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5897,7 +5917,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5934,14 +5954,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14747-2023</t>
+          <t>A 7059-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45014</v>
+        <v>45701.65484953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5954,7 +5974,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5991,14 +6011,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8862-2025</t>
+          <t>A 8858-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>45713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6011,7 +6031,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6048,14 +6068,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47943-2023</t>
+          <t>A 8862-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45204</v>
+        <v>45713</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6068,7 +6088,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6105,14 +6125,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60900-2025</t>
+          <t>A 12965-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45999</v>
+        <v>45385</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6124,8 +6144,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6162,14 +6187,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61431-2025</t>
+          <t>A 8568-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46001.55604166666</v>
+        <v>44977</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6182,7 +6207,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6219,14 +6244,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3643-2026</t>
+          <t>A 34776-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46043.35827546296</v>
+        <v>45140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6239,7 +6264,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6276,14 +6301,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 4663-2026</t>
+          <t>A 22406-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46048.4096875</v>
+        <v>44713</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6296,7 +6321,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6333,14 +6358,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5444-2025</t>
+          <t>A 6229-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45692</v>
+        <v>44600</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6352,13 +6377,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6395,14 +6415,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 56137-2021</t>
+          <t>A 18973-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44477</v>
+        <v>45044</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6415,7 +6435,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6452,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5404-2026</t>
+          <t>A 11500-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46049</v>
+        <v>45372</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6472,7 +6492,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6509,14 +6529,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5197-2026</t>
+          <t>A 10454-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46049.66547453704</v>
+        <v>44623</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6528,13 +6548,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6571,14 +6586,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 36363-2021</t>
+          <t>A 21425-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44390</v>
+        <v>44706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6591,7 +6606,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6628,14 +6643,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 70933-2021</t>
+          <t>A 16373-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44538</v>
+        <v>45407.60150462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6648,7 +6663,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6685,14 +6700,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7059-2025</t>
+          <t>A 60900-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45701.65484953704</v>
+        <v>45999</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6705,7 +6720,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6742,14 +6757,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 7474-2026</t>
+          <t>A 16346-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46059.49254629629</v>
+        <v>45407.56798611111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6761,13 +6776,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6804,14 +6814,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28923-2023</t>
+          <t>A 61431-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45104</v>
+        <v>46001.55604166666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6824,7 +6834,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6861,14 +6871,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62807-2025</t>
+          <t>A 47656-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46008</v>
+        <v>45203</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6880,13 +6890,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6923,14 +6928,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 746-2026</t>
+          <t>A 3643-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46029.67237268519</v>
+        <v>46043.35827546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6942,13 +6947,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 749-2026</t>
+          <t>A 45925-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46029.6750925926</v>
+        <v>45189</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 62798-2025</t>
+          <t>A 4663-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46008</v>
+        <v>46048.4096875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7066,13 +7066,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7109,14 +7104,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51153-2024</t>
+          <t>A 19880-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45603.57090277778</v>
+        <v>45433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7129,7 +7124,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7166,14 +7161,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31403-2023</t>
+          <t>A 47943-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45114</v>
+        <v>45204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7186,7 +7181,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7223,14 +7218,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 15856-2022</t>
+          <t>A 32732-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44664</v>
+        <v>44783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7243,7 +7238,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7280,14 +7275,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16346-2024</t>
+          <t>A 46397-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45407.56798611111</v>
+        <v>45191</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7300,7 +7295,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7337,14 +7332,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34776-2023</t>
+          <t>A 16340-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45140</v>
+        <v>45407.56114583334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7357,7 +7352,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7394,14 +7389,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45925-2023</t>
+          <t>A 5404-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45189</v>
+        <v>46049</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7413,13 +7408,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7456,14 +7446,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10454-2022</t>
+          <t>A 5444-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44623</v>
+        <v>45692</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7475,8 +7465,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7513,14 +7508,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19884-2024</t>
+          <t>A 5197-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45433</v>
+        <v>46049.66547453704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7532,8 +7527,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7570,14 +7570,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 22425-2024</t>
+          <t>A 39407-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45446</v>
+        <v>45163</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7627,14 +7627,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43745-2023</t>
+          <t>A 36414-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45187.47180555556</v>
+        <v>45152</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7646,13 +7646,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7689,14 +7684,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60371-2023</t>
+          <t>A 64905-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45259</v>
+        <v>45282</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7746,14 +7741,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20572-2021</t>
+          <t>A 51153-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44316.32141203704</v>
+        <v>45603.57090277778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7765,13 +7760,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7808,14 +7798,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 46397-2023</t>
+          <t>A 7474-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45191</v>
+        <v>46059.49254629629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7827,8 +7817,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>9.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7865,14 +7860,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50798-2023</t>
+          <t>A 15856-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45217</v>
+        <v>44664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7885,7 +7880,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7922,14 +7917,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 54711-2023</t>
+          <t>A 22425-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45236</v>
+        <v>45446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7941,13 +7936,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7984,14 +7974,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27237-2024</t>
+          <t>A 26459-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45471</v>
+        <v>44348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8004,7 +7994,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8048,7 +8038,7 @@
         <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8098,14 +8088,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12965-2024</t>
+          <t>A 31403-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45385</v>
+        <v>45114</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,13 +8107,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8160,14 +8145,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61031-2022</t>
+          <t>A 62807-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44914</v>
+        <v>46008</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8181,11 +8166,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8222,14 +8207,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47656-2023</t>
+          <t>A 62798-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45203</v>
+        <v>46008</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8241,8 +8226,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8279,14 +8269,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13754-2023</t>
+          <t>A 746-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45007.40105324074</v>
+        <v>46029.67237268519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8298,8 +8288,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8336,14 +8331,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2026-2022</t>
+          <t>A 749-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44575</v>
+        <v>46029.6750925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8355,8 +8350,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8393,14 +8393,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 64905-2023</t>
+          <t>A 26730-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45282</v>
+        <v>45090</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8412,8 +8412,13 @@
           <t>SJÖBO</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8450,14 +8455,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 21425-2022</t>
+          <t>A 14747-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44706</v>
+        <v>45014</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8470,7 +8475,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8507,14 +8512,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16429-2023</t>
+          <t>A 1098-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45029</v>
+        <v>45666.64070601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8527,7 +8532,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8564,14 +8569,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28919-2023</t>
+          <t>A 50798-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45104</v>
+        <v>45217</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8584,7 +8589,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8621,14 +8626,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6229-2022</t>
+          <t>A 49298-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44600</v>
+        <v>45210.86210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8641,7 +8646,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8678,14 +8683,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49298-2023</t>
+          <t>A 48026-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45210.86210648148</v>
+        <v>44449</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8698,7 +8703,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8735,14 +8740,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 1098-2025</t>
+          <t>A 52958-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45666.64070601852</v>
+        <v>45611.26017361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8755,7 +8760,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8792,14 +8797,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18973-2023</t>
+          <t>A 19877-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45044</v>
+        <v>45433</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8812,7 +8817,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9.4</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8849,14 +8854,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 39407-2023</t>
+          <t>A 13754-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45163</v>
+        <v>45007.40105324074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8869,7 +8874,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8906,14 +8911,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26459-2021</t>
+          <t>A 52959-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44348</v>
+        <v>45611</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8926,7 +8931,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8963,14 +8968,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 22406-2022</t>
+          <t>A 21973-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44713</v>
+        <v>45784.6365162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8983,7 +8988,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9020,14 +9025,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45981-2023</t>
+          <t>A 21976-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45189</v>
+        <v>45784.64052083333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9039,13 +9044,8 @@
           <t>SJÖBO</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9082,14 +9082,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 19877-2024</t>
+          <t>A 8861-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45433</v>
+        <v>45713</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9139,14 +9139,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8568-2023</t>
+          <t>A 45353-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44977</v>
+        <v>45576.47909722223</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9196,14 +9196,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1031-2025</t>
+          <t>A 44893-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45666.5195949074</v>
+        <v>45575.36310185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9253,14 +9253,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16340-2024</t>
+          <t>A 24914-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45407.56114583334</v>
+        <v>45799</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9310,14 +9310,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16373-2024</t>
+          <t>A 24833-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45407.60150462963</v>
+        <v>45799.45917824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9367,14 +9367,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 3258-2023</t>
+          <t>A 24830-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44948</v>
+        <v>45799.45798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9424,14 +9424,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 22330-2024</t>
+          <t>A 8859-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45446</v>
+        <v>45713</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9481,14 +9481,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 2449-2023</t>
+          <t>A 60947-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44943.43438657407</v>
+        <v>45645.38118055555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9538,14 +9538,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 26730-2023</t>
+          <t>A 44580-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45090</v>
+        <v>45189</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9559,11 +9559,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>

--- a/Översikt SJÖBO.xlsx
+++ b/Översikt SJÖBO.xlsx
@@ -575,7 +575,7 @@
         <v>45758</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45446</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44749</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45090</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45950.44706018519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>44887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>45827</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>45834</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>45530</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         <v>45471</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>45351</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>46049.62539351852</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>46043</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45183</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44538</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45253</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>44301</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44656</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>44749</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>44844.44506944445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44538.74850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>44449</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>44278</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44347</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44369</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44560</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44706</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44455</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44428</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44435</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44538</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44886</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44948</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>45265</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44943.43438657407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>44477</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45187.47180555556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45029</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45576.47644675926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45189</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45825.83328703704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45236</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         <v>45755</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         <v>45825.84996527778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>44575</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45827</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45827</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45827</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44390</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>45903</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>45905.66563657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>45909</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45845.5909837963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>45671</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45845.5739699074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45845.50957175926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>44572.58090277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45471</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>45671</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>45855</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>45848</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45433</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45433</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45868.47796296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45930</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>45671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45671</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>45104</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>45433</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>45259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>45940.58430555555</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>44914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44316.32141203704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45946.52924768518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45946.53009259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45260</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45895</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45666.5195949074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45701.65484953704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45713</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>45713</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>45385</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>44977</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45140</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44713</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44600</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45044</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45372</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>44623</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44706</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45407.60150462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45999</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45407.56798611111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>46001.55604166666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45203</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>46043.35827546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45189</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>46048.4096875</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>45433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>45204</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>44783</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>45191</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>45407.56114583334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>46049</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>45692</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>46049.66547453704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45163</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>45152</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>45282</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>45603.57090277778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>46059.49254629629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>44664</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>45446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>44348</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>45163</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>45114</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>46008</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>46008</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>46029.67237268519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>46029.6750925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>45090</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45014</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45666.64070601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45217</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45210.86210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44449</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45611.26017361111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>45433</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>45007.40105324074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>45611</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>45784.6365162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>45784.64052083333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>45713</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>45576.47909722223</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>45575.36310185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>45799</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>45799.45917824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>45799.45798611111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>45713</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>45645.38118055555</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45189</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
